--- a/biology/Botanique/Fatsia/Fatsia.xlsx
+++ b/biology/Botanique/Fatsia/Fatsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fatsia est un genre de plantes de la famille des Araliaceae. Il ne comporte que 3 espèces d'arbrisseaux originaires du sud du Japon et de Taïwan :
 Fatsia japonica
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Fatsia vient du vieux japonais 八 (ancienne prononciation ``Fachi, ``Fatsu) ou ``Hasshu, qui aurait été corrompu et signifie « huit » (en japonais actuel Hachi) en référence aux 8 lobes des feuilles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Fatsia vient du vieux japonais 八 (ancienne prononciation ``Fachi, ``Fatsu) ou ``Hasshu, qui aurait été corrompu et signifie « huit » (en japonais actuel Hachi) en référence aux 8 lobes des feuilles.
 </t>
         </is>
       </c>
@@ -545,13 +559,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Fatsia sont des arbustes ou de petits arbres, à feuilles persistantes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Fatsia sont des arbustes ou de petits arbres, à feuilles persistantes.
 Les feuilles ont un limbe simple, palmatilobé, sérulé. Les stipules sont unis au pétiole.
 L’inflorescence est une panicule terminale d’ombelles. Les bractées sont grandes, membraneuses, caduques. Les pédicelles sont non articulés sous l'ovaire.
 La fleur comporte un calice dont le bord est obsolète ou à 5 dents, 5 pétales, valvés, 5 étamines. L’ovaire a 5 ou 10 carpelles ; 5 ou 10 styles libres.
-Le fruit est une drupe subglobuleuse. les graines sont plus ou moins comprimé latéralement[3].
+Le fruit est une drupe subglobuleuse. les graines sont plus ou moins comprimé latéralement.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Hybride</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hybride stérile entre Fatsia japonica et Hedera hibernica, nommé ×Fatshedera lizei, a été produit en Europe occidentale.
 </t>
@@ -611,7 +629,9 @@
           <t>Espèces transférées dans d’autres genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces précédemment incluses dans le genre Fatsia sont maintenant classées dans d'autres genres. Fatsia papyrifera est maintenant appelée Tetrapanax papyrifer et Fatsia horrida est maintenant appelée Oplopanax horridus et Fatsia wilsonii est appelé Fatsia oligocarpa et Fatsia cavaleriei est appelé Trevesia palmata.
 </t>
@@ -642,13 +662,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 septembre 2020)[4], World Checklist of Selected Plant Families (WCSP)  (12 septembre 2020)[5] et The Plant List            (12 septembre 2020)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 septembre 2020), World Checklist of Selected Plant Families (WCSP)  (12 septembre 2020) et The Plant List            (12 septembre 2020) :
 Fatsia japonica (Thunb.) Decne. &amp; Planch., Rev. Hort. (Paris), sér. 4 (1854)
 Fatsia oligocarpella Koidz. (1918)
 Fatsia polycarpa Hayata (1908)
-Selon Tropicos                                           (12 septembre 2020)[1] :
+Selon Tropicos                                           (12 septembre 2020) :
 On retrouve les 3 mêmes noms acceptés, les autres noms sont des synonymes
 Fatsia cavaleriei H. Lév. = Trevesia palmata (Roxb. ex Lindl.) Vis.
 Fatsia cavalerieri H. Lév.
@@ -687,6 +709,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
